--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/vp-immunization</t>
+    <t>https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-immunization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T23:45:11+00:00</t>
+    <t>2022-07-09T00:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T00:02:53+00:00</t>
+    <t>2022-07-09T21:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T21:18:08+00:00</t>
+    <t>2022-07-10T14:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,6 +1441,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1779,7 +1797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2231,7 +2249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2573,7 +2591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2687,7 +2705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2803,7 +2821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3029,7 +3047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3253,7 +3271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>178</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>186</v>
       </c>
@@ -3477,7 +3495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>204</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>210</v>
       </c>
@@ -3817,7 +3835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>218</v>
       </c>
@@ -3931,7 +3949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>225</v>
       </c>
@@ -4043,7 +4061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>233</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4267,7 +4285,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>246</v>
       </c>
@@ -4379,7 +4397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>252</v>
       </c>
@@ -4491,7 +4509,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>260</v>
       </c>
@@ -4603,7 +4621,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>268</v>
       </c>
@@ -4715,7 +4733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>274</v>
       </c>
@@ -4827,7 +4845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>281</v>
       </c>
@@ -4939,7 +4957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>286</v>
       </c>
@@ -5053,7 +5071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>289</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>294</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>302</v>
       </c>
@@ -5395,7 +5413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>310</v>
       </c>
@@ -5507,7 +5525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>317</v>
       </c>
@@ -5619,7 +5637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>324</v>
       </c>
@@ -5731,7 +5749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>328</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>334</v>
       </c>
@@ -5959,7 +5977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>339</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>343</v>
       </c>
@@ -6183,7 +6201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>344</v>
       </c>
@@ -6297,7 +6315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>345</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>346</v>
       </c>
@@ -6525,7 +6543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>350</v>
       </c>
@@ -6637,7 +6655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>353</v>
       </c>
@@ -6749,7 +6767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>357</v>
       </c>
@@ -6861,7 +6879,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>361</v>
       </c>
@@ -6973,7 +6991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>367</v>
       </c>
@@ -7085,7 +7103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>372</v>
       </c>
@@ -7199,7 +7217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>378</v>
       </c>
@@ -7311,7 +7329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>379</v>
       </c>
@@ -7425,7 +7443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>380</v>
       </c>
@@ -7541,7 +7559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>381</v>
       </c>
@@ -7653,7 +7671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>385</v>
       </c>
@@ -7765,7 +7783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>391</v>
       </c>
@@ -7877,7 +7895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>396</v>
       </c>
@@ -7989,7 +8007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>399</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>400</v>
       </c>
@@ -8215,7 +8233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>401</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>402</v>
       </c>
@@ -8443,7 +8461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>405</v>
       </c>
@@ -8555,7 +8573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>408</v>
       </c>
@@ -8667,7 +8685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>413</v>
       </c>
@@ -8781,7 +8799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>418</v>
       </c>
@@ -8896,6 +8914,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN64">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI63">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T14:07:54+00:00</t>
+    <t>2022-07-10T14:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T14:44:59+00:00</t>
+    <t>2022-07-10T16:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T16:04:34+00:00</t>
+    <t>2022-07-13T20:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1633,40 +1633,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="61.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="147.5546875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -415,33 +415,51 @@
     <t>Immunization.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>administeredVaccinationDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-administered-vaccination-dose}
+</t>
+  </si>
+  <si>
+    <t>VPAdministeredVaccinationDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -449,6 +467,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -568,10 +589,213 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
   </si>
   <si>
+    <t>Immunization.vaccineCode.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-patient)
 </t>
   </si>
   <si>
@@ -621,41 +845,37 @@
     <t>Immunization.occurrence[x]</t>
   </si>
   <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
     <t>When the immunization was first captured in the subject's record</t>
   </si>
   <si>
@@ -669,10 +889,6 @@
   </si>
   <si>
     <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Indicates context the data was recorded in</t>
@@ -890,25 +1106,7 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -955,7 +1153,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://fhir-vaccination-pass.github.io/fhir-implementation-guide/StructureDefinition/vp-practitioner)
 </t>
   </si>
   <si>
@@ -1624,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1634,7 +1832,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.4609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1660,7 +1858,7 @@
     <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1909,7 +2107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1925,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2597,11 +2795,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -2616,17 +2814,15 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2663,16 +2859,14 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>134</v>
@@ -2696,7 +2890,7 @@
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2705,45 +2899,43 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2791,7 +2983,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2800,7 +2992,7 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>135</v>
@@ -2812,7 +3004,7 @@
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2823,11 +3015,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2840,22 +3032,26 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2903,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2915,27 +3111,27 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2943,32 +3139,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2993,13 +3187,13 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -3017,13 +3211,13 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -3032,24 +3226,24 @@
         <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3057,31 +3251,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3107,13 +3301,13 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -3131,10 +3325,10 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -3146,24 +3340,24 @@
         <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3171,30 +3365,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3219,9 +3415,11 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="Y14" t="s" s="2">
         <v>172</v>
       </c>
@@ -3241,10 +3439,10 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -3259,21 +3457,21 @@
         <v>173</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3287,7 +3485,7 @@
         <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3296,13 +3494,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3329,13 +3527,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3353,7 +3549,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -3368,24 +3564,24 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3408,13 +3604,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3465,7 +3661,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3477,19 +3673,19 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3497,18 +3693,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3517,19 +3713,19 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3567,51 +3763,51 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3619,31 +3815,35 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3691,13 +3891,13 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3709,13 +3909,13 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3723,7 +3923,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3743,20 +3943,18 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3805,7 +4003,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3817,19 +4015,19 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3837,18 +4035,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3860,16 +4058,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3895,63 +4093,63 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3959,31 +4157,35 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4031,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4046,16 +4248,16 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4063,7 +4265,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4083,18 +4285,20 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4143,7 +4347,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4161,21 +4365,21 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4195,19 +4399,21 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4255,7 +4461,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4273,21 +4479,21 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4307,19 +4513,21 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4367,7 +4575,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4385,10 +4593,10 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4399,7 +4607,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4419,19 +4627,23 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4455,13 +4667,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4479,7 +4691,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4497,21 +4709,21 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4531,19 +4743,23 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4567,13 +4783,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4591,7 +4807,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4609,21 +4825,21 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4631,28 +4847,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4703,10 +4919,10 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -4718,16 +4934,16 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4735,7 +4951,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4746,7 +4962,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4755,16 +4971,16 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4815,13 +5031,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4830,24 +5046,24 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4855,30 +5071,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4927,10 +5145,10 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -4939,38 +5157,38 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4982,17 +5200,15 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5041,19 +5257,19 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
@@ -5062,10 +5278,10 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5073,43 +5289,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5157,31 +5371,31 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5189,7 +5403,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5209,18 +5423,20 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5245,13 +5461,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5269,7 +5485,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5284,16 +5500,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5301,7 +5517,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5309,7 +5525,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>84</v>
@@ -5321,20 +5537,18 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5383,10 +5597,10 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>84</v>
@@ -5398,16 +5612,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5415,7 +5629,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5426,7 +5640,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5435,16 +5649,16 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5495,13 +5709,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5510,24 +5724,24 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5535,13 +5749,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5550,13 +5764,13 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5583,13 +5797,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5607,13 +5821,13 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5622,24 +5836,24 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5650,7 +5864,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5662,13 +5876,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5719,13 +5933,13 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5734,13 +5948,13 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5751,7 +5965,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5768,30 +5982,26 @@
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5811,13 +6021,13 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5835,7 +6045,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5853,21 +6063,21 @@
         <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5878,7 +6088,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5890,13 +6100,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5923,13 +6133,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5947,13 +6157,13 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5965,16 +6175,16 @@
         <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -5990,7 +6200,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -6002,13 +6212,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6065,22 +6275,22 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6089,9 +6299,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6099,28 +6309,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6171,28 +6381,28 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6203,18 +6413,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6226,17 +6436,15 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6285,19 +6493,19 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
@@ -6306,7 +6514,7 @@
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6317,11 +6525,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6334,26 +6542,24 @@
         <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6401,7 +6607,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6422,7 +6628,7 @@
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6433,39 +6639,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6513,25 +6723,25 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>127</v>
@@ -6545,7 +6755,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6565,16 +6775,16 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6601,13 +6811,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6625,7 +6835,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6640,13 +6850,13 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6655,9 +6865,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6665,30 +6875,32 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>205</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6737,10 +6949,10 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -6752,16 +6964,16 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6769,7 +6981,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6780,7 +6992,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6789,16 +7001,16 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6849,13 +7061,13 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -6864,13 +7076,13 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>127</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6881,7 +7093,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6904,13 +7116,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6937,13 +7149,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6961,7 +7173,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6976,13 +7188,13 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -6993,7 +7205,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7004,7 +7216,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -7016,13 +7228,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7049,13 +7261,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -7073,13 +7285,13 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7088,7 +7300,7 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7105,7 +7317,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7116,34 +7328,36 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7187,13 +7401,13 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7205,10 +7419,10 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7219,7 +7433,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7230,7 +7444,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7242,13 +7456,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7275,13 +7489,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7299,19 +7513,19 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7320,7 +7534,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7331,11 +7545,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7354,17 +7568,15 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7413,7 +7625,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>288</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7425,7 +7637,7 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
@@ -7434,7 +7646,7 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7445,43 +7657,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7529,19 +7737,19 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -7550,7 +7758,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7561,18 +7769,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7584,15 +7792,17 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7641,28 +7851,28 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7673,39 +7883,43 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>386</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7753,28 +7967,28 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>127</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7785,7 +7999,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7808,13 +8022,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7865,7 +8079,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7883,10 +8097,10 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>395</v>
+        <v>127</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7897,7 +8111,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7908,7 +8122,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7920,13 +8134,13 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7977,13 +8191,13 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -8009,7 +8223,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8032,13 +8246,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8089,7 +8303,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>284</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8101,16 +8315,16 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8121,18 +8335,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -8144,17 +8358,15 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -8203,28 +8415,28 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8235,11 +8447,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8252,26 +8464,22 @@
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8295,13 +8503,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -8319,7 +8527,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8331,13 +8539,13 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>127</v>
@@ -8351,7 +8559,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8374,13 +8582,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8407,13 +8615,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>74</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8431,7 +8639,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8463,7 +8671,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8474,7 +8682,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8486,15 +8694,17 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8543,13 +8753,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8561,10 +8771,10 @@
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>127</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8575,7 +8785,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8586,7 +8796,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8598,13 +8808,13 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>409</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8631,13 +8841,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8655,19 +8865,19 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>408</v>
+        <v>187</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
@@ -8676,7 +8886,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8687,18 +8897,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8710,16 +8920,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>415</v>
+        <v>190</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8769,19 +8979,19 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>413</v>
+        <v>193</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
@@ -8790,7 +9000,7 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8801,41 +9011,43 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
@@ -8883,19 +9095,19 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -8913,8 +9125,1362 @@
         <v>74</v>
       </c>
     </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8924,7 +10490,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>http://fhir.de/CodeSystem/ifa/pzn</t>
+    <t>http://fhir.de/ValueSet/ifa/pzn</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-immunization.xlsx
+++ b/StructureDefinition-vp-immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
